--- a/Design/MathWithSound/QOC.xlsx
+++ b/Design/MathWithSound/QOC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SCHOOL\MASTER ISS - AN II\Sem 2\HCI\voice-geometry-painter\Design\PaintWithVoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Facultate\HCI\hci-project\Design\MathWithSound\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="21210" windowHeight="10605"/>
   </bookViews>
   <sheets>
     <sheet name="QOC" sheetId="1" r:id="rId1"/>
@@ -48,55 +48,55 @@
     <t>O1: I type the url in a browser.</t>
   </si>
   <si>
-    <t>C1: It will take some time to type.</t>
-  </si>
-  <si>
     <t>O2: I scan a QR code.</t>
-  </si>
-  <si>
-    <t>C1: I need a smart device with such capability.</t>
-  </si>
-  <si>
-    <t>C2: I need the QR code printed on something.</t>
-  </si>
-  <si>
-    <t>C3: Easier and safer than typing.</t>
-  </si>
-  <si>
-    <t>C2: I may type one or more wrong characters, thus I should be careful.</t>
   </si>
   <si>
     <t>Scenario: Drawing</t>
   </si>
   <si>
-    <t>C1: The app explains me what commands I can use for different tasks: select different tools, select drawn objects, move brush and so on.</t>
-  </si>
-  <si>
-    <t>C2: The app asks me to give some commands in order to confirm that I understood.</t>
-  </si>
-  <si>
-    <t>C3: Towards the end I am presented a simple drawing and asked to give the specific commands in order to draw it. I get feedback after each command.</t>
-  </si>
-  <si>
-    <t>O1: I am asked if I wish a tutorial and I accept.</t>
-  </si>
-  <si>
-    <t>O2: I don't accept the tutorial, but I can anytime go to "Help" section.</t>
-  </si>
-  <si>
-    <t>C1: I can navigate through various help sections.</t>
-  </si>
-  <si>
-    <t>C2: The documentation is structured as a static html.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3: </t>
-  </si>
-  <si>
     <t>Question 2</t>
   </si>
   <si>
-    <t>Q2: How do I learn to use the app?</t>
+    <t>O1: I use a microfone to speak the commands</t>
+  </si>
+  <si>
+    <t>C1: The app highlights the command in a commands panel and shows me other available command</t>
+  </si>
+  <si>
+    <t>C2: The aplication always ask for confirmation for data correctness</t>
+  </si>
+  <si>
+    <t>C3: The aplication allows me to type the input if I want to change it or I can speak again.</t>
+  </si>
+  <si>
+    <t>O2: I use the keyboard and mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1: It is done faster and has less confirmations </t>
+  </si>
+  <si>
+    <t>C2: Very usefull to use to create predefined functions</t>
+  </si>
+  <si>
+    <t>C3: Correct the errors done by speaking</t>
+  </si>
+  <si>
+    <t>Q2: How do I use the application?</t>
+  </si>
+  <si>
+    <t>C1: It is very fast and most people use browsers</t>
+  </si>
+  <si>
+    <t>C2: Prone to mistakes due to misspelling</t>
+  </si>
+  <si>
+    <t>C1: Need a QR reader device</t>
+  </si>
+  <si>
+    <t>C2: The QR coded is need and has to be on a print or generated by brower</t>
+  </si>
+  <si>
+    <t>C3: Can take a while if the QR code is broken</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -622,7 +622,7 @@
     </row>
     <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5"/>
@@ -654,7 +654,7 @@
     </row>
     <row r="5" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="6" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
@@ -718,7 +718,7 @@
     </row>
     <row r="7" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
@@ -750,7 +750,7 @@
     </row>
     <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
@@ -782,7 +782,7 @@
     </row>
     <row r="9" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
@@ -814,11 +814,11 @@
     </row>
     <row r="10" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -846,7 +846,7 @@
     </row>
     <row r="11" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="12" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
@@ -910,7 +910,7 @@
     </row>
     <row r="13" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="14" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
@@ -974,7 +974,7 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>

--- a/Design/MathWithSound/QOC.xlsx
+++ b/Design/MathWithSound/QOC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="21210" windowHeight="10605"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="21210" windowHeight="10605"/>
   </bookViews>
   <sheets>
     <sheet name="QOC" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Legend</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>C3: Can take a while if the QR code is broken</t>
+  </si>
+  <si>
+    <t>Q3: How do I use functions in the application?</t>
+  </si>
+  <si>
+    <t>O1: Chose the function name</t>
+  </si>
+  <si>
+    <t>C1: The functions are in a list so you can see all of the functions</t>
+  </si>
+  <si>
+    <t>C2: The function will pre-populate their correspondinig draw method</t>
+  </si>
+  <si>
+    <t>C3: You can edit the function parameters before drawing</t>
+  </si>
+  <si>
+    <t>O2: Select it from the list using the mouse</t>
+  </si>
+  <si>
+    <t>C1: Usefull if the microfone is not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2: High precision, functions may have similar names </t>
   </si>
 </sst>
 </file>
@@ -187,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -225,6 +249,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +541,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1101,11 +1126,15 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1129,11 +1158,15 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1157,11 +1190,15 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1185,11 +1222,15 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1213,11 +1254,15 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1241,11 +1286,15 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1269,11 +1318,15 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1297,11 +1350,15 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1325,11 +1382,11 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
